--- a/cnb/270/sentistrength-manual/stopword-no stemming/sentimen_stopword-no stemming_terpisah.xlsx
+++ b/cnb/270/sentistrength-manual/stopword-no stemming/sentimen_stopword-no stemming_terpisah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="334">
   <si>
     <t>kecewa banget pesan free pouch dikirimnya cotton pad kaget pas unboxing untung videokan segera kabarin customer servicenya disuruh isi googleform dikirimkan ulang pouchnya hari enggak kabar akhirnya tanya dikabari kalau stock pouch ternyata habis padahal baik baik sabar mengikuti prosedur customer service berpikiran positif ternyata begini caranya</t>
   </si>
@@ -1006,6 +1006,21 @@
   </si>
   <si>
     <t>58,24%</t>
+  </si>
+  <si>
+    <t>Precision avg</t>
+  </si>
+  <si>
+    <t>Recall avg</t>
+  </si>
+  <si>
+    <t>F1 Score avg</t>
+  </si>
+  <si>
+    <t>50,34</t>
+  </si>
+  <si>
+    <t>46,58</t>
   </si>
 </sst>
 </file>
@@ -1638,6 +1653,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1658,15 +1682,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1991,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,13 +2094,13 @@
         <f>CHOOSE(MATCH(C4 &amp; D4, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2104,8 +2119,8 @@
         <f>CHOOSE(MATCH(C5 &amp; D5, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2148,7 @@
         <f>CHOOSE(MATCH(C6 &amp; D6, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegPos</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="7" t="s">
         <v>251</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2166,7 +2181,7 @@
         <f>CHOOSE(MATCH(C7 &amp; D7, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2212,7 @@
         <f>CHOOSE(MATCH(C8 &amp; D8, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2282,13 +2297,13 @@
         <f>CHOOSE(MATCH(C12 &amp; D12, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2307,8 +2322,8 @@
         <f>CHOOSE(MATCH(C13 &amp; D13, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2351,7 @@
         <f>CHOOSE(MATCH(C14 &amp; D14, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="7" t="s">
         <v>251</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2372,7 +2387,7 @@
         <f>CHOOSE(MATCH(C15 &amp; D15, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2421,7 @@
         <f>CHOOSE(MATCH(C16 &amp; D16, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3154,6 +3169,9 @@
       <c r="I47" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="J47" s="3" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -3182,7 +3200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3262,8 +3280,11 @@
       <c r="I51" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3281,7 +3302,7 @@
         <v>F NetNeg</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3307,8 +3328,11 @@
       <c r="I53" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3335,7 +3359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3389,7 +3413,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3415,8 +3439,11 @@
       <c r="I57" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3434,7 +3461,7 @@
         <v>F NegPos</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3454,8 +3481,11 @@
       <c r="G59" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3476,7 +3506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3497,7 +3527,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3518,7 +3548,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3539,7 +3569,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3560,7 +3590,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3580,8 +3610,11 @@
       <c r="G65" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3599,7 +3632,7 @@
         <v>T Net</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3620,7 +3653,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3641,7 +3674,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3662,7 +3695,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3683,7 +3716,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3704,7 +3737,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3725,7 +3758,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3746,7 +3779,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3764,7 +3797,7 @@
         <v>T Pos</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3785,7 +3818,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3827,7 +3860,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3848,7 +3881,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3869,7 +3902,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6927,5 +6960,6 @@
     <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>